--- a/DisplayTime.xlsx
+++ b/DisplayTime.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Category</t>
   </si>
@@ -25,17 +25,89 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>Boobies</t>
-  </si>
-  <si>
-    <t>1h</t>
+    <t>TOTAL CATEGORY TIME</t>
+  </si>
+  <si>
+    <t>6h 10m</t>
+  </si>
+  <si>
+    <t>----------------------------------------------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
+  </si>
+  <si>
+    <t>---------------------------------------------</t>
+  </si>
+  <si>
+    <t>------------------</t>
+  </si>
+  <si>
+    <t>self care</t>
+  </si>
+  <si>
+    <t>5h 48m</t>
+  </si>
+  <si>
+    <t>hydrate</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>1h 45m</t>
+  </si>
+  <si>
+    <t>cook healthy food</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>2h 20m</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>1h 23m</t>
+  </si>
+  <si>
+    <t>house care</t>
+  </si>
+  <si>
+    <t>22m</t>
+  </si>
+  <si>
+    <t>tidying</t>
+  </si>
+  <si>
+    <t>dishwasher</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>12m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -47,6 +119,9 @@
       <b/>
     </font>
     <font/>
+    <font>
+      <i/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -75,10 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -441,12 +517,142 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
